--- a/relatorio_final.xlsx
+++ b/relatorio_final.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,68 +435,56 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Metrica</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Metrica</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Acuracia</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acuracia</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Precisao</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="B3" t="n">
         <v>0.8931297709923665</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Recall</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="B4" t="n">
         <v>0.9831932773109243</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>F1-Score</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="B5" t="n">
         <v>0.9360000000000001</v>
       </c>
     </row>

--- a/relatorio_final.xlsx
+++ b/relatorio_final.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8931297709923665</v>
+        <v>0.9253112033195021</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9831932773109243</v>
+        <v>0.9214876033057852</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.9233954451345756</v>
       </c>
     </row>
   </sheetData>
@@ -537,22 +537,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>99.23%</t>
+          <t>95.34%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>94.83%</t>
+          <t>95.58%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>96.98%</t>
+          <t>95.46%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27100.00%</t>
+          <t>40700.00%</t>
         </is>
       </c>
     </row>
@@ -564,22 +564,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>89.31%</t>
+          <t>92.53%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>98.32%</t>
+          <t>92.15%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.60%</t>
+          <t>92.34%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11900.00%</t>
+          <t>24200.00%</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>95.90%</t>
+          <t>94.30%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>95.90%</t>
+          <t>94.30%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>95.90%</t>
+          <t>94.30%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.90%</t>
+          <t>94.30%</t>
         </is>
       </c>
     </row>
@@ -618,22 +618,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>94.27%</t>
+          <t>93.94%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>96.58%</t>
+          <t>93.86%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.29%</t>
+          <t>93.90%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>39000.00%</t>
+          <t>64900.00%</t>
         </is>
       </c>
     </row>
@@ -645,22 +645,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>96.20%</t>
+          <t>94.29%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>95.90%</t>
+          <t>94.30%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>95.95%</t>
+          <t>94.30%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>39000.00%</t>
+          <t>64900.00%</t>
         </is>
       </c>
     </row>

--- a/relatorio_final.xlsx
+++ b/relatorio_final.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9253112033195021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9214876033057852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9233954451345756</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -537,22 +537,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>95.34%</t>
+          <t>98.46%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>95.58%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.46%</t>
+          <t>99.22%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>40700.00%</t>
+          <t>12800.00%</t>
         </is>
       </c>
     </row>
@@ -564,22 +564,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>92.53%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>92.15%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.34%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24200.00%</t>
+          <t>200.00%</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>94.30%</t>
+          <t>98.46%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>94.30%</t>
+          <t>98.46%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.30%</t>
+          <t>98.46%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.30%</t>
+          <t>98.46%</t>
         </is>
       </c>
     </row>
@@ -618,22 +618,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>93.94%</t>
+          <t>49.23%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>93.86%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.90%</t>
+          <t>49.61%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>64900.00%</t>
+          <t>13000.00%</t>
         </is>
       </c>
     </row>
@@ -645,22 +645,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>94.29%</t>
+          <t>96.95%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>94.30%</t>
+          <t>98.46%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.30%</t>
+          <t>97.70%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>64900.00%</t>
+          <t>13000.00%</t>
         </is>
       </c>
     </row>

--- a/relatorio_final.xlsx
+++ b/relatorio_final.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.8169257340241797</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.8824626865671642</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.8484304932735426</v>
       </c>
     </row>
   </sheetData>
@@ -537,22 +537,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>98.46%</t>
+          <t>91.24%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>86.09%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>88.59%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12800.00%</t>
+          <t>76200.00%</t>
         </is>
       </c>
     </row>
@@ -564,22 +564,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>81.69%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>88.25%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>84.84%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>200.00%</t>
+          <t>53600.00%</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>98.46%</t>
+          <t>86.98%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>98.46%</t>
+          <t>86.98%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>98.46%</t>
+          <t>86.98%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.46%</t>
+          <t>86.98%</t>
         </is>
       </c>
     </row>
@@ -618,22 +618,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>49.23%</t>
+          <t>86.47%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>87.17%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>49.61%</t>
+          <t>86.72%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>13000.00%</t>
+          <t>129800.00%</t>
         </is>
       </c>
     </row>
@@ -645,22 +645,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>96.95%</t>
+          <t>87.30%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>98.46%</t>
+          <t>86.98%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>97.70%</t>
+          <t>87.04%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13000.00%</t>
+          <t>129800.00%</t>
         </is>
       </c>
     </row>

--- a/relatorio_final.xlsx
+++ b/relatorio_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Métricas" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Relatório de Classificação" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Métricas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Relatório de Classificação" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +454,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -464,8 +464,10 @@
           <t>Precisao</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.8169257340241797</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>80.00%</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -474,8 +476,10 @@
           <t>Recall</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.8824626865671642</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -484,8 +488,10 @@
           <t>F1-Score</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.8484304932735426</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -537,23 +543,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>91.24%</t>
+          <t>81.28%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>86.09%</t>
+          <t>91.54%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.59%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>76200.00%</t>
-        </is>
+          <t>86.10%</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4230</v>
       </c>
     </row>
     <row r="3">
@@ -564,23 +568,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>81.69%</t>
+          <t>75.55%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>88.25%</t>
+          <t>55.36%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.84%</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>53600.00%</t>
-        </is>
+          <t>63.89%</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1998</v>
       </c>
     </row>
     <row r="4">
@@ -591,23 +593,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>86.98%</t>
+          <t>79.93%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>86.98%</t>
+          <t>79.93%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.98%</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.98%</t>
-        </is>
+          <t>79.93%</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7992935131663456</v>
       </c>
     </row>
     <row r="5">
@@ -618,23 +618,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>86.47%</t>
+          <t>78.41%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>87.17%</t>
+          <t>73.45%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.72%</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>129800.00%</t>
-        </is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6228</v>
       </c>
     </row>
     <row r="6">
@@ -645,23 +643,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>87.30%</t>
+          <t>79.44%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>86.98%</t>
+          <t>79.93%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.04%</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>129800.00%</t>
-        </is>
+          <t>78.98%</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6228</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_final.xlsx
+++ b/relatorio_final.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>90.00%</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -543,21 +543,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>81.28%</t>
+          <t>91.24%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>91.54%</t>
+          <t>86.09%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.10%</t>
+          <t>88.59%</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4230</v>
+        <v>762</v>
       </c>
     </row>
     <row r="3">
@@ -568,21 +568,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>75.55%</t>
+          <t>81.69%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>55.36%</t>
+          <t>88.25%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>63.89%</t>
+          <t>84.84%</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1998</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4">
@@ -593,21 +593,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>79.93%</t>
+          <t>86.98%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>79.93%</t>
+          <t>86.98%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>79.93%</t>
+          <t>86.98%</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.7992935131663456</v>
+        <v>0.8697996918335902</v>
       </c>
     </row>
     <row r="5">
@@ -618,21 +618,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>78.41%</t>
+          <t>86.47%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>73.45%</t>
+          <t>87.17%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>86.72%</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6228</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="6">
@@ -643,21 +643,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>79.44%</t>
+          <t>87.30%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>79.93%</t>
+          <t>86.98%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>78.98%</t>
+          <t>87.04%</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6228</v>
+        <v>1298</v>
       </c>
     </row>
   </sheetData>
